--- a/Student Timetable/ThirdYearTimetable.xlsx
+++ b/Student Timetable/ThirdYearTimetable.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F907A6B9-40C8-4CCF-B69A-BFC276D1F450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A5F1F-795F-4659-910E-91430B23962F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
     <sheet name="csb" sheetId="3" r:id="rId2"/>
     <sheet name="eee" sheetId="2" r:id="rId3"/>
+    <sheet name="ece" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>cg</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>power systems</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>kseb</t>
   </si>
 </sst>
 </file>
@@ -449,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,4 +492,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D12755-464C-4C19-BC14-BF4A58827F39}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Student Timetable/ThirdYearTimetable.xlsx
+++ b/Student Timetable/ThirdYearTimetable.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A5F1F-795F-4659-910E-91430B23962F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC39C4-2745-4CA0-9EC5-9C28591F7CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="csa" sheetId="1" r:id="rId1"/>
-    <sheet name="csb" sheetId="3" r:id="rId2"/>
-    <sheet name="eee" sheetId="2" r:id="rId3"/>
-    <sheet name="ece" sheetId="4" r:id="rId4"/>
+    <sheet name="cs" sheetId="1" r:id="rId1"/>
+    <sheet name="eee" sheetId="2" r:id="rId2"/>
+    <sheet name="ece" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>cg</t>
   </si>
@@ -372,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -411,48 +410,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B23304-21BA-4364-A8CA-6D0BEAA4B346}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45040</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45041</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833C2EC-FCD1-4FB8-95A6-0A00351F0E76}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -494,11 +451,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D12755-464C-4C19-BC14-BF4A58827F39}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Student Timetable/ThirdYearTimetable.xlsx
+++ b/Student Timetable/ThirdYearTimetable.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CC39C4-2745-4CA0-9EC5-9C28591F7CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED16AE7-074A-4675-AB10-511850F1550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
-    <sheet name="eee" sheetId="2" r:id="rId2"/>
-    <sheet name="ece" sheetId="4" r:id="rId3"/>
+    <sheet name="ee" sheetId="2" r:id="rId2"/>
+    <sheet name="ec" sheetId="4" r:id="rId3"/>
+    <sheet name="ce" sheetId="9" r:id="rId4"/>
+    <sheet name="me" sheetId="6" r:id="rId5"/>
+    <sheet name="mr" sheetId="5" r:id="rId6"/>
+    <sheet name="ad" sheetId="7" r:id="rId7"/>
+    <sheet name="rb" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>cg</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>subject</t>
   </si>
@@ -51,6 +50,54 @@
   </si>
   <si>
     <t>kseb</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>ic</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>AAD</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>IEFT</t>
+  </si>
+  <si>
+    <t>Comprehensive</t>
   </si>
 </sst>
 </file>
@@ -369,39 +416,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45040</v>
+        <v>45114</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45041</v>
+        <v>45118</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -424,10 +504,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +515,7 @@
         <v>45040</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +523,7 @@
         <v>45041</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -456,7 +536,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,10 +546,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,7 +557,7 @@
         <v>45092</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +565,217 @@
         <v>45097</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64472F3F-0F89-4AF0-9BCC-10B7628599EB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFD78B-164C-4E55-A31D-B30F1F9DBE82}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D9637-F88A-4790-B100-A99B532B35F5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5AB5E6-0DC4-48ED-A022-B8FE412CE0A2}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA026285-5723-4C86-A54C-A79D18A3D3D0}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Student Timetable/ThirdYearTimetable.xlsx
+++ b/Student Timetable/ThirdYearTimetable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED16AE7-074A-4675-AB10-511850F1550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F040DBF3-DAB2-4C2D-9BF8-48E0670A7154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -40,48 +40,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>linear control</t>
-  </si>
-  <si>
-    <t>power systems</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>kseb</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>bone</t>
-  </si>
-  <si>
-    <t>ic</t>
-  </si>
-  <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>engine</t>
-  </si>
-  <si>
-    <t>clutch</t>
-  </si>
-  <si>
     <t>CG</t>
   </si>
   <si>
@@ -98,6 +56,48 @@
   </si>
   <si>
     <t>Comprehensive</t>
+  </si>
+  <si>
+    <t>Linear control</t>
+  </si>
+  <si>
+    <t>Power systems</t>
+  </si>
+  <si>
+    <t>Communication Systems</t>
+  </si>
+  <si>
+    <t>Microprocessors and Microcontrollers</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineering</t>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>Fluid Mechanics</t>
+  </si>
+  <si>
+    <t>Manufacturing Processes</t>
+  </si>
+  <si>
+    <t>Mechatronics Design</t>
+  </si>
+  <si>
+    <t>Industrial Automation</t>
+  </si>
+  <si>
+    <t>Neural Networks and Deep Learning</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Robot Perception</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -441,7 +441,7 @@
         <v>45114</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>45118</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +457,7 @@
         <v>45120</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>45126</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +473,7 @@
         <v>45128</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>45131</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +494,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>45040</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +523,7 @@
         <v>45041</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +536,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>45092</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>45097</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +620,50 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D9637-F88A-4790-B100-A99B532B35F5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,18 +681,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44980</v>
+        <v>44969</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44982</v>
+        <v>44971</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -657,12 +700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6D9637-F88A-4790-B100-A99B532B35F5}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5AB5E6-0DC4-48ED-A022-B8FE412CE0A2}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,18 +723,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44971</v>
+        <v>44976</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -699,12 +742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5AB5E6-0DC4-48ED-A022-B8FE412CE0A2}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA026285-5723-4C86-A54C-A79D18A3D3D0}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,52 +765,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44974</v>
+        <v>44963</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44976</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA026285-5723-4C86-A54C-A79D18A3D3D0}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -775,7 +776,7 @@
         <v>44964</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
